--- a/flows/OILD_fund_flow_data.xlsx
+++ b/flows/OILD_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1384"/>
+  <dimension ref="A1:B1397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14275,6 +14275,136 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
